--- a/clcore_ig/output/StructureDefinition-cl-address.xlsx
+++ b/clcore_ig/output/StructureDefinition-cl-address.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -408,7 +408,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
@@ -722,10 +722,10 @@
 </t>
   </si>
   <si>
-    <t>Codigo de Identificación de países</t>
-  </si>
-  <si>
-    <t>Esta extensión incluye códigos de paises de origen</t>
+    <t>Codigo de Paises</t>
+  </si>
+  <si>
+    <t>Esta extensión incluye códigos de paises</t>
   </si>
   <si>
     <t>Address.country.value</t>
